--- a/bots/crawl_ch/output/bread_coop_2023-01-12.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O396"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
         <v>4.5</v>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" t="n">
         <v>4.5</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
         <v>4.5</v>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3655,7 +3655,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
         <v>4.5</v>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3801,10 +3801,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" t="n">
         <v>4.5</v>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5095,10 +5095,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -6953,10 +6953,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E101" t="n">
         <v>4.5</v>
@@ -7654,7 +7654,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11472,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12353,10 +12353,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13103,7 +13103,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück 5.95 Schweizer Franken</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück - Online kein Bestand 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15732,7 +15732,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16442,7 +16442,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17096,10 +17096,10 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17781,7 +17781,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17848,7 +17848,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18057,7 +18057,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18903,7 +18903,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -18972,7 +18972,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19394,7 +19394,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20246,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20524,7 +20524,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -22437,7 +22437,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -23971,7 +23971,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24040,7 +24040,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25430,7 +25430,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25704,7 +25704,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
@@ -25840,45 +25840,43 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6798608</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Naturaplan Bio Birnweggen 4x60g</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
-        </is>
-      </c>
-      <c r="D360" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25888,7 +25886,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25903,55 +25901,51 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E361" t="n">
         <v>4.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25961,7 +25955,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25971,56 +25965,60 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E362" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26030,7 +26028,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26040,60 +26038,56 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E363" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26103,7 +26097,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26113,46 +26107,46 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E364" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -26166,7 +26160,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26176,7 +26170,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26186,60 +26180,60 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E365" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26249,7 +26243,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26259,60 +26253,60 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E366" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26322,7 +26316,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26332,60 +26326,60 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E367" t="n">
         <v>3.5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26395,7 +26389,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26405,42 +26399,46 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -26449,12 +26447,12 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26464,7 +26462,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26479,49 +26477,51 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>6</v>
+      </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26541,60 +26541,54 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
-        </is>
-      </c>
-      <c r="D370" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
       <c r="E370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26604,7 +26598,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26614,39 +26608,39 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -26657,17 +26651,17 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26677,7 +26671,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26687,56 +26681,60 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr"/>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E372" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26746,7 +26744,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26761,53 +26759,51 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>10</v>
+      </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26817,7 +26813,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26832,51 +26828,53 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr"/>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
-        </is>
-      </c>
-      <c r="D374" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
       <c r="E374" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26886,7 +26884,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26901,55 +26899,51 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26959,7 +26953,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26974,55 +26968,55 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegetarian']</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27032,7 +27026,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27042,60 +27036,60 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E377" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27105,7 +27099,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27115,56 +27109,60 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr"/>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E378" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27174,7 +27172,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27189,55 +27187,51 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27247,7 +27241,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27257,54 +27251,60 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N379" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>4</v>
+      </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27314,7 +27314,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27324,35 +27324,35 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -27361,17 +27361,17 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27391,60 +27391,54 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D382" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr"/>
       <c r="E382" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27454,7 +27448,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27464,56 +27458,60 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N382" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27523,7 +27521,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27533,60 +27531,56 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E384" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27596,7 +27590,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27606,56 +27600,60 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27665,7 +27663,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27675,60 +27673,56 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27738,7 +27732,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27748,60 +27742,60 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>['chilled', 'gluten_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27811,7 +27805,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27821,40 +27815,46 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27893,30 +27893,30 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -27925,17 +27925,17 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27955,56 +27955,54 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
-        </is>
-      </c>
-      <c r="D390" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="E390" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28014,7 +28012,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28029,51 +28027,51 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3041968</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Aprikosentorte</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E391" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28083,7 +28081,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28093,56 +28091,56 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Aprikosentorte 4.20 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3041968</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Aprikosentorte</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28152,7 +28150,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28162,56 +28160,56 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Aprikosentorte 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28221,7 +28219,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28231,49 +28229,51 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>3</v>
+      </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -28298,56 +28298,54 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
-        </is>
-      </c>
-      <c r="D395" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
       <c r="E395" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28357,7 +28355,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28367,54 +28365,56 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>7016451</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>1.00/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28424,7 +28424,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28434,18 +28434,85 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-12 06:49:47</t>
+          <t>2023-01-12 12:57:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>7016451</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Schenkeli 7x30g</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr"/>
+      <c r="E397" t="n">
+        <v>0</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>1.00/100g</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr"/>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>2023-01-12 12:57:49</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2023-01-12.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7857,7 +7857,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7926,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -7999,7 +7999,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8488,13 +8488,13 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Prix Garantie Zwieback - Online kein Bestand 1.80 Schweizer Franken</t>
+          <t>Prix Garantie Zwieback 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10271,7 +10271,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10482,7 +10482,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10555,7 +10555,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11050,7 +11050,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11472,7 +11472,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13034,7 +13034,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13103,7 +13103,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13249,7 +13249,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13610,7 +13610,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13679,7 +13679,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -13955,7 +13955,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14164,13 +14164,13 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Prix Garantie Croissants 6 Stück - Online kein Bestand 1.95 Schweizer Franken</t>
+          <t>Prix Garantie Croissants 6 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14596,7 +14596,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14742,7 +14742,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15590,7 +15590,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15732,7 +15732,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15801,7 +15801,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16442,7 +16442,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17075,7 +17075,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17781,7 +17781,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17848,7 +17848,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17919,7 +17919,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18057,7 +18057,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18126,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18337,7 +18337,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18903,7 +18903,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -18972,7 +18972,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19394,7 +19394,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19682,7 +19682,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19755,7 +19755,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20177,7 +20177,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20246,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20319,7 +20319,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20524,7 +20524,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20737,7 +20737,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20806,7 +20806,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22786,7 +22786,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22855,7 +22855,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23346,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23484,7 +23484,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -23971,7 +23971,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24040,7 +24040,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24738,7 +24738,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25152,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25430,7 +25430,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25704,7 +25704,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
@@ -25840,43 +25840,45 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6798608</t>
+          <t>5803198</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 4x60g</t>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-birnweggen-4x60g/p/6798608</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>6</v>
+      </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>1.87/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25886,7 +25888,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25901,51 +25903,55 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Birnweggen 4x60g 25% Aktion 2.85 Schweizer Franken statt 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr"/>
+          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>5803198</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-guezli-orangino-soft-cake-glutenfrei/p/5803198</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E361" t="n">
         <v>4.5</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.87/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25955,7 +25961,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -25965,60 +25971,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Schär Guezli Orangino Soft Cake glutenfrei 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E362" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26028,7 +26030,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26038,56 +26040,60 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N362" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E363" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26097,7 +26103,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26107,46 +26113,46 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E364" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -26160,7 +26166,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26170,7 +26176,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26180,60 +26186,60 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 2+1 Aktion 2.95 Schweizer Franken</t>
+          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E365" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26243,7 +26249,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26253,60 +26259,60 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 40% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E366" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26316,7 +26322,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26326,60 +26332,60 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>6603471</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E367" t="n">
         <v>3.5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.75/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26389,7 +26395,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26399,46 +26405,42 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6603471</t>
+          <t>6151984</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-baguette-rustic-glutenfrei/p/6603471</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E368" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -26447,12 +26449,12 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.75/100g</t>
+          <t>1.44/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26462,7 +26464,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26477,51 +26479,49 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Baguette Rustic glutenfrei 5.60 Schweizer Franken</t>
+          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6151984</t>
+          <t>6857774</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei</t>
+          <t>Dar-Vida Nature</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-frischback-brot-chia-quinoa-glutenfrei/p/6151984</t>
-        </is>
-      </c>
-      <c r="D369" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>1.44/100g</t>
+          <t>2.40/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26541,54 +26541,60 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Frischback-Brot Chia &amp;amp; Quinoa glutenfrei 7.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr"/>
+          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6857774</t>
+          <t>6575281</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature</t>
+          <t>Old El Paso Fajita Kit Gluten Free</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-nature/p/6857774</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>3</v>
+      </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.40/100g</t>
+          <t>1.67/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26598,7 +26604,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26608,39 +26614,39 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Dar-Vida Nature 1.00 Schweizer Franken</t>
+          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6575281</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-kit-gluten-free/p/6575281</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -26651,17 +26657,17 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.67/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26671,7 +26677,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26681,60 +26687,56 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Old El Paso Fajita Kit Gluten Free 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>5803251</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Schär Pausa Ciok Snack glutenfrei</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E372" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.99/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26744,7 +26746,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26759,51 +26761,53 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr"/>
+          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>5803251</t>
+          <t>4005123</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei</t>
+          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schaer-pausa-ciok-snack-glutenfrei/p/5803251</t>
-        </is>
-      </c>
-      <c r="D373" t="n">
-        <v>10</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="E373" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>1.99/100g</t>
+          <t>2.21/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -26813,7 +26817,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -26828,53 +26832,51 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Schär Pausa Ciok Snack glutenfrei 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>4005123</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-muffins-schokolade-16-stueck/p/4005123</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>2.21/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -26884,7 +26886,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -26899,51 +26901,55 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>Bonne Maman Muffins Schokolade 16 Stück 20% ab 2 Aktion 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -26953,7 +26959,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -26968,55 +26974,55 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27026,7 +27032,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -27036,60 +27042,60 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois - Online kein Bestand 3.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>5722126</t>
+          <t>4967215</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
+          <t>Bonne Maman Madeleine 7 Stück</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>2.26/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27099,7 +27105,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -27109,60 +27115,56 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>4967215</t>
+          <t>6146680</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück</t>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-madeleine-7-stueck/p/4967215</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>2.26/100g</t>
+          <t>2.86/100g</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27172,7 +27174,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -27187,51 +27189,55 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Bonne Maman Madeleine 7 Stück - Online kein Bestand 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N378" t="inlineStr"/>
+          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>6146680</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-bischofberger-biber-herzli-6x32g/p/6146680</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E379" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>2.86/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27241,7 +27247,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -27251,60 +27257,54 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bischofberger Biber Herzli 6x32g 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N379" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
-        </is>
-      </c>
-      <c r="D380" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
       <c r="E380" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27314,7 +27314,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -27324,35 +27324,35 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>6561501</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -27361,17 +27361,17 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27381,7 +27381,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -27391,54 +27391,60 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6561501</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber-3x62g/p/6561501</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>2.16/100g</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -27448,7 +27454,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27458,60 +27464,56 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 3x62g 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N382" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E383" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>2.16/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -27521,7 +27523,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27531,56 +27533,60 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Roland Sport Plus Nature</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
         </is>
       </c>
       <c r="D384" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E384" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -27590,7 +27596,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27600,60 +27606,56 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 20% ab 2 Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -27663,7 +27665,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -27673,56 +27675,60 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Roland Sport Plus Nature 2+1 Aktion 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr"/>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E386" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27732,7 +27738,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27742,60 +27748,60 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'gluten_free']</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27805,7 +27811,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27815,46 +27821,40 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'pizzateig-pastateig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
-        </is>
-      </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -27893,30 +27893,30 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 40% ab 2 Aktion 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>6981861</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>Sapori d'Italia Panettini Croccantini</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
@@ -27925,17 +27925,17 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27945,7 +27945,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27955,54 +27955,56 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>6981861</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/sapori-d-italia-panettini-croccantini/p/6981861</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>2</v>
+      </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28012,7 +28014,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28027,51 +28029,51 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Sapori d'Italia Panettini Croccantini 3.30 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>3041968</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Aprikosentorte</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
         </is>
       </c>
       <c r="D391" t="n">
+        <v>1</v>
+      </c>
+      <c r="E391" t="n">
         <v>2</v>
       </c>
-      <c r="E391" t="n">
-        <v>5</v>
-      </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28081,7 +28083,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28091,56 +28093,56 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
+          <t>Aprikosentorte 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>3041968</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Aprikosentorte</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosentorte/p/3041968</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28150,7 +28152,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28160,56 +28162,56 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Aprikosentorte 4.20 Schweizer Franken</t>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28219,7 +28221,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28229,51 +28231,49 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
-        </is>
-      </c>
-      <c r="D394" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
       <c r="E394" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -28298,54 +28298,56 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>3351706</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Motta Panettone</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Motta</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>3.00/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28355,7 +28357,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28365,56 +28367,54 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Motta Panettone 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>3351706</t>
+          <t>7016451</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Motta Panettone</t>
+          <t>Schenkeli 7x30g</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/motta-panettone/p/3351706</t>
-        </is>
-      </c>
-      <c r="D396" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr"/>
       <c r="E396" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Motta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>3.00/100g</t>
+          <t>1.00/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28424,7 +28424,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28434,85 +28434,18 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Motta Panettone 2.70 Schweizer Franken</t>
+          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-12 12:57:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>7016451</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>Schenkeli 7x30g</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schenkeli-7x30g/p/7016451</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="n">
-        <v>0</v>
-      </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="G397" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>1.00/100g</t>
-        </is>
-      </c>
-      <c r="I397" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J397" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
-        </is>
-      </c>
-      <c r="M397" t="inlineStr">
-        <is>
-          <t>Schenkeli 7x30g –.50 Rabatt Aktion 2.10 Schweizer Franken statt 2.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N397" t="inlineStr"/>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>2023-01-12 12:57:49</t>
+          <t>2023-01-12 20:49:39</t>
         </is>
       </c>
     </row>
